--- a/Chinook 2.0/j1939_limit.xlsx
+++ b/Chinook 2.0/j1939_limit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mantaj\Documents\Chinook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QA Laptop\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F51AEBE-C9CD-4C2C-8E66-12B7BCC8B7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17454E7-5C3B-4F6B-9845-7297F2D6EE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="348" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-10035" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="135">
   <si>
     <t>J1939AcceleratorPedalPosition1</t>
   </si>
@@ -196,9 +196,6 @@
     <t>1000</t>
   </si>
   <si>
-    <t>1734.96875</t>
-  </si>
-  <si>
     <t>250</t>
   </si>
   <si>
@@ -241,26 +238,200 @@
     <t>r</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Unit</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>max_value</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>min_value</t>
+    <t>min_ Value</t>
+  </si>
+  <si>
+    <t>Max_value</t>
+  </si>
+  <si>
+    <t>Other tags</t>
+  </si>
+  <si>
+    <t>Priority 0 tags</t>
+  </si>
+  <si>
+    <t>J1939AntiLockBrakingAbsActive</t>
+  </si>
+  <si>
+    <t>J1939AcceleratorPedalKickdownSwitch</t>
+  </si>
+  <si>
+    <t>J1939ACHighPressureFanSwitch</t>
+  </si>
+  <si>
+    <t>J1939ActualEnginePercentTorqueHighResolution</t>
+  </si>
+  <si>
+    <t>J1939BatteryPotentialPowerInput</t>
+  </si>
+  <si>
+    <t>J1939BrakeSwitch</t>
+  </si>
+  <si>
+    <t>J1939ClutchSwitch</t>
+  </si>
+  <si>
+    <t>J1939CrsCntrlCstDlrtSwth</t>
+  </si>
+  <si>
+    <t>J1939CruiseControlAccelerateSwitch</t>
+  </si>
+  <si>
+    <t>J1939CruiseControlActive</t>
+  </si>
+  <si>
+    <t>J1939CruiseControlEnableSwitch</t>
+  </si>
+  <si>
+    <t>J1939CruiseControlResumeSwitch</t>
+  </si>
+  <si>
+    <t>J1939CruiseControlSetSpeed</t>
+  </si>
+  <si>
+    <t>km/h</t>
+  </si>
+  <si>
+    <t>J1939CruiseControlSetSwitch</t>
+  </si>
+  <si>
+    <t>J1939CruiseControlStates</t>
+  </si>
+  <si>
+    <t>J1939EngineAverageFuelEconomy</t>
+  </si>
+  <si>
+    <t>km/L</t>
+  </si>
+  <si>
+    <t>J1939EngineControlledShutdownRequest</t>
+  </si>
+  <si>
+    <t>J1939EngineDemandPercentTorque</t>
+  </si>
+  <si>
+    <t>J1939EngineDiagnosticTestModeSwitch</t>
+  </si>
+  <si>
+    <t>J1939EngineFan1EstimatedPercentSpeed</t>
+  </si>
+  <si>
+    <t>J1939EngineExhaustGasTemperature</t>
+  </si>
+  <si>
+    <t>J1939EngineIdleDecrementSwitch</t>
+  </si>
+  <si>
+    <t>J1939EngineIdleIncrementSwitch</t>
+  </si>
+  <si>
+    <t>J1939EngineIdleShutdownTimerFunction</t>
+  </si>
+  <si>
+    <t>J1939EngineInjectorMeteringRail1Pressure</t>
+  </si>
+  <si>
+    <t>Mpa</t>
+  </si>
+  <si>
+    <t>J1939EngineInstantaneousFuelEconomy</t>
+  </si>
+  <si>
+    <t>J1939EngineOperatingState</t>
+  </si>
+  <si>
+    <t>J1939EngineSDesiredOperatingSpeed</t>
+  </si>
+  <si>
+    <t>J1939EngineTotalIdleFuelUsed</t>
+  </si>
+  <si>
+    <t>J1939EngineTotalIdleHours</t>
+  </si>
+  <si>
+    <t>J1939EngineWaitToStartLamp</t>
+  </si>
+  <si>
+    <t>J1939EngnEmrgnImmdtShtdwnIndtn</t>
+  </si>
+  <si>
+    <t>J1939EngnFlSpplPmpIntkAsltPrssr</t>
+  </si>
+  <si>
+    <t>J1939EngnOprtrPrmrIntrmdtSpdSlt</t>
+  </si>
+  <si>
+    <t>J1939EngnPrttnSstmCnfgrtn</t>
+  </si>
+  <si>
+    <t>J1939EngnPrttnSstmTmrOvrrd</t>
+  </si>
+  <si>
+    <t>J1939EngnPrttnSstmTmrStt</t>
+  </si>
+  <si>
+    <t>J1939EngnPtGvrnrAlrtSwth</t>
+  </si>
+  <si>
+    <t>J1939EngnPtGvrnrCstDlrtSwth</t>
+  </si>
+  <si>
+    <t>J1939ESDsdOptSpdAstAdstt</t>
+  </si>
+  <si>
+    <t>J1939EstmtdEngnPrstLsssPrntTrqPSI</t>
+  </si>
+  <si>
+    <t>J1939FanDriveState</t>
+  </si>
+  <si>
+    <t>J1939PowerTakeoffSetSpeed</t>
+  </si>
+  <si>
+    <t>J1939PtoGovernorState</t>
+  </si>
+  <si>
+    <t>J1939TotalEnginePtoGovernorFuelUsed</t>
+  </si>
+  <si>
+    <t>J1939TripAverageFuelRate</t>
+  </si>
+  <si>
+    <t>J1939WheelBasedVehicleSpeed</t>
+  </si>
+  <si>
+    <t>J1939EngineFuelTemperature1</t>
+  </si>
+  <si>
+    <t>J1939ServiceBrakeDemandPressure</t>
+  </si>
+  <si>
+    <t>J1939FrontAxleLeftWheelSpeed</t>
+  </si>
+  <si>
+    <t>J1939Frontaxlerightwheelspeed</t>
+  </si>
+  <si>
+    <t>J1939OperatorShiftPrompt</t>
+  </si>
+  <si>
+    <t>J1939TransmissionCurrentGear</t>
+  </si>
+  <si>
+    <t>J1939TransmissionRequestedGear</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +446,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -312,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -320,6 +512,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,161 +848,135 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>-124</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="2"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
-      <c r="C7" s="2">
-        <v>100</v>
+      <c r="C7" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>50</v>
+      <c r="A8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>4211081215</v>
+        <v>0.875</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3212.75</v>
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-124</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4211081215</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>64</v>
@@ -802,7 +984,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>50</v>
@@ -813,44 +995,48 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
+      <c r="A14" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>30</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>9</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>10</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>50</v>
@@ -862,19 +1048,19 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>50</v>
@@ -886,7 +1072,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>50</v>
@@ -898,7 +1084,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>50</v>
@@ -910,7 +1096,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>50</v>
@@ -922,7 +1108,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>50</v>
@@ -934,69 +1120,61 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2">
-        <v>-39</v>
+        <v>20</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>68</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>67</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="2">
-        <v>3212.75</v>
+      <c r="C28" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>66</v>
@@ -1004,21 +1182,21 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>50</v>
+        <v>23</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2">
         <v>-39</v>
@@ -1027,188 +1205,190 @@
         <v>56</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>52</v>
+      <c r="A31" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="2">
+        <v>-124</v>
+      </c>
+      <c r="C31" s="2">
+        <v>125</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="2">
+        <v>-90</v>
+      </c>
+      <c r="C33" s="2">
+        <v>400</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2">
-        <v>-272</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="2"/>
+      <c r="C35" s="2">
+        <v>3212</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <v>250.99600000000001</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>125.498046875</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="2">
-        <v>2105540607.5</v>
+      <c r="C39" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="2">
-        <v>210554060.75</v>
+        <v>28</v>
+      </c>
+      <c r="B40" s="2">
+        <v>-39</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="2">
-        <v>4211081215000</v>
+      <c r="C41" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="2">
-        <v>2105540607.5</v>
+      <c r="C42" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B43" s="2">
-        <v>0</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>62</v>
+        <v>-272</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1734</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>50</v>
@@ -1220,104 +1400,844 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="2">
-        <v>8031.875</v>
+      <c r="C45" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2105540607.5</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="B47" s="2">
-        <v>-124</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>52</v>
+        <v>0</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2105540607.5</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2">
+        <v>210554060.75</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" s="2"/>
+      <c r="C49" s="2">
+        <v>2105540607.5</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2">
+        <v>250.99600000000001</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D51" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2">
+        <v>250.99600000000001</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2">
+        <v>30</v>
+      </c>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2">
+        <v>3</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="2">
+        <v>-124</v>
+      </c>
+      <c r="C54" s="2">
+        <v>125</v>
+      </c>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="2">
+        <v>-64</v>
+      </c>
+      <c r="C55" s="2">
+        <v>64</v>
+      </c>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2">
+        <v>250.99600000000001</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="7"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2">
+        <v>3</v>
+      </c>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2">
+        <v>3</v>
+      </c>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0</v>
+      </c>
+      <c r="C63" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0</v>
+      </c>
+      <c r="C64" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="2">
+        <v>3212</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2">
+        <v>3</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0</v>
+      </c>
+      <c r="C67" s="2">
+        <v>3</v>
+      </c>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2">
+        <v>3</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0</v>
+      </c>
+      <c r="C69" s="2">
+        <v>3</v>
+      </c>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2">
+        <v>3</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2">
+        <v>3</v>
+      </c>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2">
+        <v>3</v>
+      </c>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2">
+        <v>250</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0</v>
+      </c>
+      <c r="C74" s="2">
+        <v>3</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2">
+        <v>7</v>
+      </c>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2">
+        <v>125.498046875</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0</v>
+      </c>
+      <c r="C77" s="2">
+        <v>3</v>
+      </c>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2">
+        <v>100</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B79" s="2">
+        <v>30</v>
+      </c>
+      <c r="C79" s="2">
+        <v>60</v>
+      </c>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0</v>
+      </c>
+      <c r="C80" s="2">
+        <v>3</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0</v>
+      </c>
+      <c r="C81" s="2">
+        <v>3</v>
+      </c>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0</v>
+      </c>
+      <c r="C82" s="2">
+        <v>15</v>
+      </c>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>200</v>
+      <c r="B83" s="2">
+        <v>0</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2">
+        <v>8031.875</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C87" s="2">
+        <v>210554060</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C88" s="2">
+        <v>4211081215000</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0</v>
+      </c>
+      <c r="C89" s="2">
+        <v>3</v>
+      </c>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0</v>
+      </c>
+      <c r="C90" s="2">
+        <v>3</v>
+      </c>
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" s="2">
+        <v>0</v>
+      </c>
+      <c r="C92" s="2">
+        <v>500</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0</v>
+      </c>
+      <c r="C93" s="2">
+        <v>15</v>
+      </c>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0</v>
+      </c>
+      <c r="C94" s="2">
+        <v>3</v>
+      </c>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0</v>
+      </c>
+      <c r="C96" s="2">
+        <v>3</v>
+      </c>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0</v>
+      </c>
+      <c r="C97" s="2">
+        <v>3</v>
+      </c>
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0</v>
+      </c>
+      <c r="C98" s="2">
+        <v>3</v>
+      </c>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0</v>
+      </c>
+      <c r="C99" s="2">
+        <v>3</v>
+      </c>
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0</v>
+      </c>
+      <c r="C100" s="2">
+        <v>250</v>
+      </c>
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0</v>
+      </c>
+      <c r="C101" s="2">
+        <v>15</v>
+      </c>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102" s="2">
+        <v>8031.875</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B103" s="2">
+        <v>-124</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0</v>
+      </c>
+      <c r="C104" s="2">
+        <v>8031.875</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0</v>
+      </c>
+      <c r="C105" s="2">
+        <v>15</v>
+      </c>
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B109" s="2">
+        <v>0</v>
+      </c>
+      <c r="C109" s="2">
+        <v>5</v>
+      </c>
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>125</v>
+      </c>
+      <c r="B111" s="4">
+        <v>0</v>
+      </c>
+      <c r="C111" s="4">
+        <v>2105540607.5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>126</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>3212.75</v>
+      </c>
+      <c r="D112" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="2"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114">
+        <v>251</v>
+      </c>
+      <c r="C114">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>